--- a/specification/bassoon dims_v1.xlsx
+++ b/specification/bassoon dims_v1.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dncob\Documents\CAD\bassoon\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dncob\Documents\GitHub\Open-Bassoon\specification\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5366EAF4-60D7-4FD1-BE94-14B661E40034}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E583F9A4-7E61-4D95-A14B-7D417B7A5A37}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Joints" sheetId="1" r:id="rId1"/>
@@ -449,8 +449,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G7"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I11" sqref="I11"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -619,7 +619,7 @@
         <v>0</v>
       </c>
       <c r="G7">
-        <f t="shared" si="1"/>
+        <f>$E$6-E7</f>
         <v>-33.699999999999989</v>
       </c>
     </row>
@@ -636,8 +636,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3980D860-74DA-4DC1-81D6-C28BE7DDC254}">
   <dimension ref="A1:H31"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="O12" sqref="O12"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="K25" sqref="K25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
